--- a/WEO統計ページ/XLSXTable/C1_Security_Apparatus.xlsx
+++ b/WEO統計ページ/XLSXTable/C1_Security_Apparatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c144b2c14e6297/ドキュメント/GitHub/WorldData/WEO統計ページ/XLSXTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E1C24D-F648-48C8-8581-B5923278CDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2155C56D-3831-46F7-8F4F-1BA103134FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76665" yWindow="2970" windowWidth="28245" windowHeight="16965" xr2:uid="{E1ABC7CF-8661-48CF-98E0-5201B4196282}"/>
+    <workbookView xWindow="78255" yWindow="6375" windowWidth="28245" windowHeight="14475" xr2:uid="{195280CD-7A84-4F38-B967-A6E49F48D943}"/>
   </bookViews>
   <sheets>
     <sheet name="C1_Security_Apparatus" sheetId="1" r:id="rId1"/>
@@ -672,6 +672,7 @@
       <sheetName val="WorldMap"/>
       <sheetName val="暫定シート→"/>
       <sheetName val="C1_Security_Apparatus"/>
+      <sheetName val="C2_Factionalized_Elites"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -683,6 +684,7 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1004,8 +1006,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53FED8B-1C4E-4D39-BB65-992990B5555F}">
-  <sheetPr codeName="Sheet7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CCC5D8-511A-4743-B9B7-D3284443CE83}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
